--- a/biology/Zoologie/Belone_belone/Belone_belone.xlsx
+++ b/biology/Zoologie/Belone_belone/Belone_belone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aiguillette, Aiguille de mer, Poisson cornu, Orphie
 L'Orphie, Poisson cornu, Aiguillette ou Aiguille de mer (Belone belone) est une espèce de poissons d'eau de mer ou saumâtre du genre Belone, famille des Belonidae, ordre des Béloniformes.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'orphie est un poisson serpentiforme qui possède un long bec armé de fines dents très acérées. Le bec inférieur est légèrement plus long que le supérieur. Ce poisson a la particularité d'avoir des arêtes vertes à bleues en raison de la biliverdine, un pigment biliaire résultant de l’oxydation de la bilirubine[1]. La taille moyenne de l'adulte est de 30 cm (maxi 100 cm).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'orphie est un poisson serpentiforme qui possède un long bec armé de fines dents très acérées. Le bec inférieur est légèrement plus long que le supérieur. Ce poisson a la particularité d'avoir des arêtes vertes à bleues en raison de la biliverdine, un pigment biliaire résultant de l’oxydation de la bilirubine. La taille moyenne de l'adulte est de 30 cm (maxi 100 cm).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les orphies apparaissent près des côtes en début de saison chaude, y passent tout l'été et regagnent le large dès les premiers froids de l'automne. C'est un prédateur pélagique qui vit à proximité de la surface. Les jeunes forment de grands bancs. Adultes, les orphies ne forment plus que de petits groupes d'individus qui se suivent, mais plutôt de manière dispersée.
 </t>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,7 +618,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La période de reproduction s'étale de mai à août et la femelle pond environ 50 000 œufs.
 </t>
@@ -633,16 +653,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appellations diverses et dialectales
-L’orphie est aussi connue localement sous le nom d’aiguillette, aiguille, aiguille de mer, poisson cornu, poisson-vince, seto[Qui ?], aigueille (patois noirmoutrain), bécassine de mer et anguillo (occitan) et de horfi (patois des îles Anglo-Normandes et du Bessin).
+          <t>Appellations diverses et dialectales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’orphie est aussi connue localement sous le nom d’aiguillette, aiguille, aiguille de mer, poisson cornu, poisson-vince, seto[Qui ?], aigueille (patois noirmoutrain), bécassine de mer et anguillo (occitan) et de horfi (patois des îles Anglo-Normandes et du Bessin).
 En outre, on ajoute souvent un qualificatif : orphie commune ou orphie vulgaire.
-Étymologie
-Le mot est attesté en français pour la première fois en 1393 sous la forme orfin[2].
-Différentes étymologies ont été soutenues par les spécialistes, le terme serait issu du grec orphos[3],[4], sans plus de détails, du néerlandais hoornvisch « poisson à corne »[5] ou encore de l'ancien scandinave hornfiskr, même sens[6].
-La première étymologie est erronée, en effet orphos est le nom d'un poisson que l'on trouve dans l'Histoire des Animaux d'Aristote, latinisé en orphus chez Pline[7], mais il s'agit d'un gros poisson carnivore à dents de scie. Le nom de ce poisson va être régulièrement francisé en orphe. Linné va reprendre le mot sous la forme latine orfus pour qualifier une espèce d’ide, Cyprinus orfus, francisé en orfe, orphe. Le terme orfe se perpétue en anglais courant pour désigner l'ide, alors qu’orfe est vieilli en français.
-Quant à la graphie du terme français orphie avec -ph-, elle est empruntée au précédent et repose sur l'analogie. En réalité, l'étymologie gréco-latine ne peut ni rendre compte de la finale -ie du terme français orphie, ni de l'origine géographique de ses premières attestations, ni de cette espèce de poissons d'un genre tout différent.
-Le néerlandais hoornvisch [ho:rnfisk], s'il convient bien phonétiquement : amuïssement de [n] interconsonantique en français et chute des consonnes finales, n'est pas satisfaisant en ce qui concerne l'ancienneté des premières attestations (le français ayant rarement emprunté au néerlandais des termes relatifs à la vie maritime avant le XVe siècle) et leur origine géographique est essentiellement normande, et non pas picarde comme on l'attendrait dans le cadre d'un emprunt au néerlandais. Le terme est attesté anciennement en normand sous la forme horfi au singulier et l'on dit « le horfi » et non pas « l’orfi » sur les côtes du Bessin, etc. avec un h « aspiré », voire expiré. Comme de nombreux termes anciens relatifs à la vie maritime et à la navigation, le mot français est un emprunt au normand, lui-même de l'ancien scandinave hornfiskr « poisson à corne » qui se perpétue aussi dans le vieil anglais hornfisċ, l'islandais moderne hornfiskur, le suédois et le danois hornfisk[8].
-Le dérivé orficot attesté à Agon (Normandie) renforce la pertinence de cette dernière hypothèse sur les plans géographique et phonétique, en effet, le k [k], graphié c, s'est maintenu dans le dérivé en -ot et le s s'est régulièrement amuï devant k / c.
 </t>
         </is>
       </c>
@@ -668,10 +686,54 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Appellations et étymologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot est attesté en français pour la première fois en 1393 sous la forme orfin.
+Différentes étymologies ont été soutenues par les spécialistes, le terme serait issu du grec orphos sans plus de détails, du néerlandais hoornvisch « poisson à corne » ou encore de l'ancien scandinave hornfiskr, même sens.
+La première étymologie est erronée, en effet orphos est le nom d'un poisson que l'on trouve dans l'Histoire des Animaux d'Aristote, latinisé en orphus chez Pline, mais il s'agit d'un gros poisson carnivore à dents de scie. Le nom de ce poisson va être régulièrement francisé en orphe. Linné va reprendre le mot sous la forme latine orfus pour qualifier une espèce d’ide, Cyprinus orfus, francisé en orfe, orphe. Le terme orfe se perpétue en anglais courant pour désigner l'ide, alors qu’orfe est vieilli en français.
+Quant à la graphie du terme français orphie avec -ph-, elle est empruntée au précédent et repose sur l'analogie. En réalité, l'étymologie gréco-latine ne peut ni rendre compte de la finale -ie du terme français orphie, ni de l'origine géographique de ses premières attestations, ni de cette espèce de poissons d'un genre tout différent.
+Le néerlandais hoornvisch [ho:rnfisk], s'il convient bien phonétiquement : amuïssement de [n] interconsonantique en français et chute des consonnes finales, n'est pas satisfaisant en ce qui concerne l'ancienneté des premières attestations (le français ayant rarement emprunté au néerlandais des termes relatifs à la vie maritime avant le XVe siècle) et leur origine géographique est essentiellement normande, et non pas picarde comme on l'attendrait dans le cadre d'un emprunt au néerlandais. Le terme est attesté anciennement en normand sous la forme horfi au singulier et l'on dit « le horfi » et non pas « l’orfi » sur les côtes du Bessin, etc. avec un h « aspiré », voire expiré. Comme de nombreux termes anciens relatifs à la vie maritime et à la navigation, le mot français est un emprunt au normand, lui-même de l'ancien scandinave hornfiskr « poisson à corne » qui se perpétue aussi dans le vieil anglais hornfisċ, l'islandais moderne hornfiskur, le suédois et le danois hornfisk.
+Le dérivé orficot attesté à Agon (Normandie) renforce la pertinence de cette dernière hypothèse sur les plans géographique et phonétique, en effet, le k [k], graphié c, s'est maintenu dans le dérivé en -ot et le s s'est régulièrement amuï devant k / c.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Belone_belone</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belone_belone</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Belone belone acus Risso, 1827 — Méditerranée et régions de l'Atlantique attenantes (Madère, îles Canaries, Açores et sud du Cap-Vert)
 Belone belone belone (Linnaeus, 1761) — Nord-est de l'Atlantique
@@ -679,31 +741,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Belone_belone</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Belone_belone</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Belone_belone</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belone_belone</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Pêche</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L'orphie est un poisson facile à pêcher pour des novices, car elle mord aussi bien à l'appât naturel qu'au leurre.
 C'est aussi un poisson qui se défend très bien pour sa taille mais qui se fatigue très vite.
@@ -715,39 +779,6 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Belone_belone</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Belone_belone</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Danger pour l'homme</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'orphie a priori n'attaque pas l'homme, mais sa mâchoire en forme d'aiguille ou d'épée peut causer des blessures perforantes graves. Parfois, la mâchoire se casse à l'impact et reste implantée comme corps étranger, la victime ne s'apercevant pas toujours ce qui est survenu[9],[10].
-On doit prendre garde à la confusion entre le genre “poisson-aiguille” (Belone, en anglais “needlefish”) et l’espèce “orphie” (Belone belone, en anglais “garfish”). La suite concerne une autre espèce, l’orphie ne vivant ni en Asie, ni en Océanie (voir l’onglet “Répartition géographique” ci-dessus) (cou, bras, jambes[11], poitrine, torse[12], visage, yeux). En effet l'orphie aime nager en surface et compte tenu de sa vitesse de déplacement, elle peut embrocher des baigneurs et ainsi entraîner la mort (blessure fatale au cerveau par perforation de l'œil en 1977[13], au cœur en 2007) même si les traumatismes recensés  sont rares (plus d'une trentaine de cas, principalement en région Indo-Pacifique;  le 23 janvier 2020, alors qu'il pêchait avec sa famille, au large des côtes de Buton en Indonésie Mohammad Idul, a eu le cou transpercé par ce poisson.
-Il lui arrive aussi de sauter hors de l'eau et risque alors d'atteindre les personnes se trouvant sur un bateau[14]  des véliplanchistes[15] ou des kitesurfeurs. La plupart des accidents recensés concerne des pêcheurs car au moment de remonter la prise, le poisson saute inévitablement. Il a aussi été rapporté des blessures survenues la nuit, l'orphie étant attirée par la lumière du bateau.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
@@ -769,12 +800,49 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Danger pour l'homme</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'orphie a priori n'attaque pas l'homme, mais sa mâchoire en forme d'aiguille ou d'épée peut causer des blessures perforantes graves. Parfois, la mâchoire se casse à l'impact et reste implantée comme corps étranger, la victime ne s'apercevant pas toujours ce qui est survenu,.
+On doit prendre garde à la confusion entre le genre “poisson-aiguille” (Belone, en anglais “needlefish”) et l’espèce “orphie” (Belone belone, en anglais “garfish”). La suite concerne une autre espèce, l’orphie ne vivant ni en Asie, ni en Océanie (voir l’onglet “Répartition géographique” ci-dessus) (cou, bras, jambes, poitrine, torse, visage, yeux). En effet l'orphie aime nager en surface et compte tenu de sa vitesse de déplacement, elle peut embrocher des baigneurs et ainsi entraîner la mort (blessure fatale au cerveau par perforation de l'œil en 1977, au cœur en 2007) même si les traumatismes recensés  sont rares (plus d'une trentaine de cas, principalement en région Indo-Pacifique;  le 23 janvier 2020, alors qu'il pêchait avec sa famille, au large des côtes de Buton en Indonésie Mohammad Idul, a eu le cou transpercé par ce poisson.
+Il lui arrive aussi de sauter hors de l'eau et risque alors d'atteindre les personnes se trouvant sur un bateau  des véliplanchistes ou des kitesurfeurs. La plupart des accidents recensés concerne des pêcheurs car au moment de remonter la prise, le poisson saute inévitablement. Il a aussi été rapporté des blessures survenues la nuit, l'orphie étant attirée par la lumière du bateau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Belone_belone</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belone_belone</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Préparation culinaire</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson a une odeur très particulière lorsqu'il est cru (« métallique », semblable à l'odeur du barracuda). Mais sa chair est assez ferme[16] et savoureuse une fois cuite et ressemble à celle de la sole. Découpée en tronçons et frite au beurre avec du poivre et du sel, l'aiguillette ou orphie aura des amateurs.
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson a une odeur très particulière lorsqu'il est cru (« métallique », semblable à l'odeur du barracuda). Mais sa chair est assez ferme et savoureuse une fois cuite et ressemble à celle de la sole. Découpée en tronçons et frite au beurre avec du poivre et du sel, l'aiguillette ou orphie aura des amateurs.
 </t>
         </is>
       </c>
